--- a/crawler/depressed.xlsx
+++ b/crawler/depressed.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\semi\AdvancedML_project\crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B93C6F07-718F-4A74-9048-DCBCBAD49C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98CBC76-9EE9-4673-A6C6-3C78F32D2B26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -60845,8 +60844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2181" workbookViewId="0">
-      <selection activeCell="A2319" sqref="A2319:B2319"/>
+    <sheetView tabSelected="1" topLeftCell="A2304" workbookViewId="0">
+      <selection activeCell="B2319" sqref="B2319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -79403,7 +79402,7 @@
         <v>5774</v>
       </c>
       <c r="B2319">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
